--- a/Utility_Files/Employee_details.xlsx
+++ b/Utility_Files/Employee_details.xlsx
@@ -16,12 +16,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$380</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="807">
   <si>
     <t>Vikram Kumbhar</t>
   </si>
@@ -1100,9 +1103,6 @@
     <t>Planning</t>
   </si>
   <si>
-    <t>Elect</t>
-  </si>
-  <si>
     <t>RB</t>
   </si>
   <si>
@@ -1145,27 +1145,15 @@
     <t>Security</t>
   </si>
   <si>
-    <t>SPB Packing</t>
-  </si>
-  <si>
     <t>Civil</t>
   </si>
   <si>
-    <t>SPB Proc</t>
-  </si>
-  <si>
-    <t>WPB Proc</t>
-  </si>
-  <si>
     <t>Abhijit Bhadale</t>
   </si>
   <si>
     <t>Manager</t>
   </si>
   <si>
-    <t>Mechanical</t>
-  </si>
-  <si>
     <t>R.Arun</t>
   </si>
   <si>
@@ -1190,9 +1178,6 @@
     <t xml:space="preserve">Production </t>
   </si>
   <si>
-    <t>SPB Processing</t>
-  </si>
-  <si>
     <t>Dipak Butte</t>
   </si>
   <si>
@@ -1220,18 +1205,12 @@
     <t>T Bharathi Ram Prasath</t>
   </si>
   <si>
-    <t>EB &amp; Standardization</t>
-  </si>
-  <si>
     <t>Samrudha Ghag</t>
   </si>
   <si>
     <t>Bharanidharan S.</t>
   </si>
   <si>
-    <t>WPB Packing</t>
-  </si>
-  <si>
     <t>D. Hari Krishnan</t>
   </si>
   <si>
@@ -1241,9 +1220,6 @@
     <t>Khushbir Singh</t>
   </si>
   <si>
-    <t>Electrical &amp; Instrumentation</t>
-  </si>
-  <si>
     <t>Mahendra Singh</t>
   </si>
   <si>
@@ -1268,9 +1244,6 @@
     <t>Jitesh Ahuja</t>
   </si>
   <si>
-    <t>FG, PMG</t>
-  </si>
-  <si>
     <t>Deepak Choudhary</t>
   </si>
   <si>
@@ -1280,9 +1253,6 @@
     <t>Bhaskar Dhanadiya</t>
   </si>
   <si>
-    <t>WPB Processing</t>
-  </si>
-  <si>
     <t>Kalbe Mustafa</t>
   </si>
   <si>
@@ -2472,6 +2442,9 @@
   </si>
   <si>
     <t>EmpID</t>
+  </si>
+  <si>
+    <t>Electrical</t>
   </si>
 </sst>
 </file>
@@ -2816,7 +2789,7 @@
   <dimension ref="A1:E380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2830,24 +2803,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="B1" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="C1" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="D1" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="E1" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -2864,7 +2837,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -2881,7 +2854,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -2898,7 +2871,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -2915,7 +2888,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -2932,7 +2905,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -2949,7 +2922,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -2966,7 +2939,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -2983,7 +2956,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -3000,7 +2973,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -3017,7 +2990,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -3034,7 +3007,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -3046,12 +3019,12 @@
         <v>352</v>
       </c>
       <c r="E13" t="s">
-        <v>359</v>
+        <v>806</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -3063,12 +3036,12 @@
         <v>348</v>
       </c>
       <c r="E14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -3085,7 +3058,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -3097,12 +3070,12 @@
         <v>348</v>
       </c>
       <c r="E16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -3114,12 +3087,12 @@
         <v>348</v>
       </c>
       <c r="E17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -3131,12 +3104,12 @@
         <v>348</v>
       </c>
       <c r="E18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -3145,15 +3118,15 @@
         <v>342</v>
       </c>
       <c r="D19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -3165,12 +3138,12 @@
         <v>352</v>
       </c>
       <c r="E20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -3182,12 +3155,12 @@
         <v>348</v>
       </c>
       <c r="E21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -3196,15 +3169,15 @@
         <v>342</v>
       </c>
       <c r="D22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -3213,15 +3186,15 @@
         <v>342</v>
       </c>
       <c r="D23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -3230,15 +3203,15 @@
         <v>342</v>
       </c>
       <c r="D24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -3255,7 +3228,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -3267,12 +3240,12 @@
         <v>348</v>
       </c>
       <c r="E26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -3284,12 +3257,12 @@
         <v>348</v>
       </c>
       <c r="E27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -3301,12 +3274,12 @@
         <v>348</v>
       </c>
       <c r="E28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -3318,12 +3291,12 @@
         <v>348</v>
       </c>
       <c r="E29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -3332,15 +3305,15 @@
         <v>346</v>
       </c>
       <c r="D30" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E30" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -3352,12 +3325,12 @@
         <v>348</v>
       </c>
       <c r="E31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
@@ -3374,7 +3347,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
@@ -3386,12 +3359,12 @@
         <v>348</v>
       </c>
       <c r="E33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
@@ -3408,7 +3381,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -3417,15 +3390,15 @@
         <v>345</v>
       </c>
       <c r="D35" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E35" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
@@ -3442,7 +3415,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
@@ -3451,15 +3424,15 @@
         <v>344</v>
       </c>
       <c r="D37" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E37" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="B38" t="s">
         <v>36</v>
@@ -3476,7 +3449,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
@@ -3488,12 +3461,12 @@
         <v>348</v>
       </c>
       <c r="E39" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
@@ -3510,7 +3483,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
@@ -3519,15 +3492,15 @@
         <v>345</v>
       </c>
       <c r="D41" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E41" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="B42" t="s">
         <v>40</v>
@@ -3544,7 +3517,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
@@ -3553,15 +3526,15 @@
         <v>345</v>
       </c>
       <c r="D43" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E43" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="B44" t="s">
         <v>42</v>
@@ -3570,15 +3543,15 @@
         <v>345</v>
       </c>
       <c r="D44" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E44" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
@@ -3587,15 +3560,15 @@
         <v>345</v>
       </c>
       <c r="D45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="B46" t="s">
         <v>44</v>
@@ -3607,12 +3580,12 @@
         <v>348</v>
       </c>
       <c r="E46" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="B47" t="s">
         <v>45</v>
@@ -3629,7 +3602,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="B48" t="s">
         <v>46</v>
@@ -3641,12 +3614,12 @@
         <v>348</v>
       </c>
       <c r="E48" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="B49" t="s">
         <v>47</v>
@@ -3658,12 +3631,12 @@
         <v>350</v>
       </c>
       <c r="E49" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="B50" t="s">
         <v>48</v>
@@ -3672,15 +3645,15 @@
         <v>345</v>
       </c>
       <c r="D50" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E50" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="B51" t="s">
         <v>49</v>
@@ -3689,15 +3662,15 @@
         <v>344</v>
       </c>
       <c r="D51" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E51" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="B52" t="s">
         <v>50</v>
@@ -3709,12 +3682,12 @@
         <v>348</v>
       </c>
       <c r="E52" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="B53" t="s">
         <v>51</v>
@@ -3723,15 +3696,15 @@
         <v>344</v>
       </c>
       <c r="D53" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E53" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="B54" t="s">
         <v>52</v>
@@ -3743,12 +3716,12 @@
         <v>352</v>
       </c>
       <c r="E54" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="B55" t="s">
         <v>53</v>
@@ -3760,12 +3733,12 @@
         <v>348</v>
       </c>
       <c r="E55" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
@@ -3777,12 +3750,12 @@
         <v>348</v>
       </c>
       <c r="E56" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="B57" t="s">
         <v>55</v>
@@ -3794,12 +3767,12 @@
         <v>348</v>
       </c>
       <c r="E57" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="B58" t="s">
         <v>56</v>
@@ -3811,12 +3784,12 @@
         <v>348</v>
       </c>
       <c r="E58" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="B59" t="s">
         <v>57</v>
@@ -3828,12 +3801,12 @@
         <v>348</v>
       </c>
       <c r="E59" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="B60" t="s">
         <v>58</v>
@@ -3845,12 +3818,12 @@
         <v>348</v>
       </c>
       <c r="E60" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="B61" t="s">
         <v>59</v>
@@ -3859,15 +3832,15 @@
         <v>345</v>
       </c>
       <c r="D61" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E61" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="B62" t="s">
         <v>60</v>
@@ -3884,7 +3857,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="B63" t="s">
         <v>61</v>
@@ -3893,15 +3866,15 @@
         <v>345</v>
       </c>
       <c r="D63" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E63" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="B64" t="s">
         <v>62</v>
@@ -3913,12 +3886,12 @@
         <v>348</v>
       </c>
       <c r="E64" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="B65" t="s">
         <v>63</v>
@@ -3935,7 +3908,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="B66" t="s">
         <v>64</v>
@@ -3952,7 +3925,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="B67" t="s">
         <v>65</v>
@@ -3969,7 +3942,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="B68" t="s">
         <v>66</v>
@@ -3981,12 +3954,12 @@
         <v>348</v>
       </c>
       <c r="E68" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="B69" t="s">
         <v>67</v>
@@ -4003,7 +3976,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="B70" t="s">
         <v>68</v>
@@ -4020,7 +3993,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="B71" t="s">
         <v>69</v>
@@ -4029,15 +4002,15 @@
         <v>345</v>
       </c>
       <c r="D71" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E71" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="B72" t="s">
         <v>70</v>
@@ -4046,15 +4019,15 @@
         <v>345</v>
       </c>
       <c r="D72" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E72" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="B73" t="s">
         <v>71</v>
@@ -4066,12 +4039,12 @@
         <v>348</v>
       </c>
       <c r="E73" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="B74" t="s">
         <v>72</v>
@@ -4088,7 +4061,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="B75" t="s">
         <v>73</v>
@@ -4100,12 +4073,12 @@
         <v>348</v>
       </c>
       <c r="E75" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="B76" t="s">
         <v>74</v>
@@ -4122,7 +4095,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="B77" t="s">
         <v>75</v>
@@ -4139,7 +4112,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="B78" t="s">
         <v>76</v>
@@ -4151,12 +4124,12 @@
         <v>348</v>
       </c>
       <c r="E78" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="B79" t="s">
         <v>77</v>
@@ -4168,12 +4141,12 @@
         <v>348</v>
       </c>
       <c r="E79" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="B80" t="s">
         <v>78</v>
@@ -4185,12 +4158,12 @@
         <v>348</v>
       </c>
       <c r="E80" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="B81" t="s">
         <v>79</v>
@@ -4207,7 +4180,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="B82" t="s">
         <v>80</v>
@@ -4224,7 +4197,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="B83" t="s">
         <v>81</v>
@@ -4241,7 +4214,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="B84" t="s">
         <v>82</v>
@@ -4253,12 +4226,12 @@
         <v>348</v>
       </c>
       <c r="E84" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="B85" t="s">
         <v>83</v>
@@ -4275,7 +4248,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B86" t="s">
         <v>84</v>
@@ -4292,7 +4265,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="B87" t="s">
         <v>85</v>
@@ -4309,7 +4282,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="B88" t="s">
         <v>86</v>
@@ -4321,12 +4294,12 @@
         <v>348</v>
       </c>
       <c r="E88" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="B89" t="s">
         <v>87</v>
@@ -4338,12 +4311,12 @@
         <v>348</v>
       </c>
       <c r="E89" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="B90" t="s">
         <v>88</v>
@@ -4360,7 +4333,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="B91" t="s">
         <v>89</v>
@@ -4372,12 +4345,12 @@
         <v>348</v>
       </c>
       <c r="E91" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="B92" t="s">
         <v>90</v>
@@ -4389,12 +4362,12 @@
         <v>348</v>
       </c>
       <c r="E92" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="B93" t="s">
         <v>91</v>
@@ -4406,12 +4379,12 @@
         <v>348</v>
       </c>
       <c r="E93" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="B94" t="s">
         <v>92</v>
@@ -4423,12 +4396,12 @@
         <v>348</v>
       </c>
       <c r="E94" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="B95" t="s">
         <v>93</v>
@@ -4440,12 +4413,12 @@
         <v>348</v>
       </c>
       <c r="E95" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="B96" t="s">
         <v>94</v>
@@ -4457,12 +4430,12 @@
         <v>348</v>
       </c>
       <c r="E96" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="B97" t="s">
         <v>95</v>
@@ -4474,12 +4447,12 @@
         <v>348</v>
       </c>
       <c r="E97" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="B98" t="s">
         <v>96</v>
@@ -4491,12 +4464,12 @@
         <v>348</v>
       </c>
       <c r="E98" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="B99" t="s">
         <v>97</v>
@@ -4505,15 +4478,15 @@
         <v>344</v>
       </c>
       <c r="D99" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E99" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="B100" t="s">
         <v>98</v>
@@ -4522,15 +4495,15 @@
         <v>343</v>
       </c>
       <c r="D100" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E100" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="B101" t="s">
         <v>99</v>
@@ -4542,12 +4515,12 @@
         <v>348</v>
       </c>
       <c r="E101" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="B102" t="s">
         <v>100</v>
@@ -4559,12 +4532,12 @@
         <v>348</v>
       </c>
       <c r="E102" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="B103" t="s">
         <v>101</v>
@@ -4573,15 +4546,15 @@
         <v>345</v>
       </c>
       <c r="D103" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E103" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="B104" t="s">
         <v>102</v>
@@ -4593,12 +4566,12 @@
         <v>350</v>
       </c>
       <c r="E104" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="B105" t="s">
         <v>103</v>
@@ -4610,12 +4583,12 @@
         <v>350</v>
       </c>
       <c r="E105" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="B106" t="s">
         <v>104</v>
@@ -4624,15 +4597,15 @@
         <v>345</v>
       </c>
       <c r="D106" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E106" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="B107" t="s">
         <v>105</v>
@@ -4649,7 +4622,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="B108" t="s">
         <v>106</v>
@@ -4661,12 +4634,12 @@
         <v>348</v>
       </c>
       <c r="E108" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="B109" t="s">
         <v>107</v>
@@ -4678,12 +4651,12 @@
         <v>348</v>
       </c>
       <c r="E109" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="B110" t="s">
         <v>108</v>
@@ -4695,12 +4668,12 @@
         <v>348</v>
       </c>
       <c r="E110" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="B111" t="s">
         <v>109</v>
@@ -4712,12 +4685,12 @@
         <v>348</v>
       </c>
       <c r="E111" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="B112" t="s">
         <v>110</v>
@@ -4729,12 +4702,12 @@
         <v>348</v>
       </c>
       <c r="E112" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="B113" t="s">
         <v>111</v>
@@ -4746,12 +4719,12 @@
         <v>348</v>
       </c>
       <c r="E113" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="B114" t="s">
         <v>112</v>
@@ -4760,15 +4733,15 @@
         <v>345</v>
       </c>
       <c r="D114" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E114" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="B115" t="s">
         <v>113</v>
@@ -4780,12 +4753,12 @@
         <v>348</v>
       </c>
       <c r="E115" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="B116" t="s">
         <v>114</v>
@@ -4797,12 +4770,12 @@
         <v>348</v>
       </c>
       <c r="E116" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="B117" t="s">
         <v>115</v>
@@ -4819,7 +4792,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="B118" t="s">
         <v>116</v>
@@ -4831,12 +4804,12 @@
         <v>348</v>
       </c>
       <c r="E118" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="B119" t="s">
         <v>117</v>
@@ -4848,12 +4821,12 @@
         <v>348</v>
       </c>
       <c r="E119" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="B120" t="s">
         <v>118</v>
@@ -4865,12 +4838,12 @@
         <v>348</v>
       </c>
       <c r="E120" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="B121" t="s">
         <v>119</v>
@@ -4879,15 +4852,15 @@
         <v>345</v>
       </c>
       <c r="D121" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E121" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="B122" t="s">
         <v>120</v>
@@ -4904,7 +4877,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="B123" t="s">
         <v>121</v>
@@ -4916,12 +4889,12 @@
         <v>348</v>
       </c>
       <c r="E123" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="B124" t="s">
         <v>122</v>
@@ -4933,12 +4906,12 @@
         <v>348</v>
       </c>
       <c r="E124" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="B125" t="s">
         <v>123</v>
@@ -4950,12 +4923,12 @@
         <v>348</v>
       </c>
       <c r="E125" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="B126" t="s">
         <v>124</v>
@@ -4964,15 +4937,15 @@
         <v>345</v>
       </c>
       <c r="D126" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E126" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="B127" t="s">
         <v>125</v>
@@ -4984,12 +4957,12 @@
         <v>348</v>
       </c>
       <c r="E127" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B128" t="s">
         <v>126</v>
@@ -5001,12 +4974,12 @@
         <v>348</v>
       </c>
       <c r="E128" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="B129" t="s">
         <v>127</v>
@@ -5018,12 +4991,12 @@
         <v>348</v>
       </c>
       <c r="E129" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="B130" t="s">
         <v>128</v>
@@ -5035,12 +5008,12 @@
         <v>348</v>
       </c>
       <c r="E130" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="B131" t="s">
         <v>129</v>
@@ -5052,12 +5025,12 @@
         <v>348</v>
       </c>
       <c r="E131" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="B132" t="s">
         <v>130</v>
@@ -5069,12 +5042,12 @@
         <v>348</v>
       </c>
       <c r="E132" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="B133" t="s">
         <v>131</v>
@@ -5083,15 +5056,15 @@
         <v>343</v>
       </c>
       <c r="D133" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E133" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B134" t="s">
         <v>132</v>
@@ -5100,15 +5073,15 @@
         <v>345</v>
       </c>
       <c r="D134" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E134" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="B135" t="s">
         <v>133</v>
@@ -5120,12 +5093,12 @@
         <v>348</v>
       </c>
       <c r="E135" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="B136" t="s">
         <v>134</v>
@@ -5137,12 +5110,12 @@
         <v>348</v>
       </c>
       <c r="E136" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="B137" t="s">
         <v>135</v>
@@ -5154,12 +5127,12 @@
         <v>348</v>
       </c>
       <c r="E137" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="B138" t="s">
         <v>136</v>
@@ -5168,15 +5141,15 @@
         <v>344</v>
       </c>
       <c r="D138" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E138" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="B139" t="s">
         <v>137</v>
@@ -5188,12 +5161,12 @@
         <v>348</v>
       </c>
       <c r="E139" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="B140" t="s">
         <v>138</v>
@@ -5202,15 +5175,15 @@
         <v>345</v>
       </c>
       <c r="D140" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E140" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="B141" t="s">
         <v>139</v>
@@ -5219,15 +5192,15 @@
         <v>345</v>
       </c>
       <c r="D141" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E141" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="B142" t="s">
         <v>140</v>
@@ -5236,15 +5209,15 @@
         <v>345</v>
       </c>
       <c r="D142" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E142" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="B143" t="s">
         <v>141</v>
@@ -5256,12 +5229,12 @@
         <v>348</v>
       </c>
       <c r="E143" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="B144" t="s">
         <v>142</v>
@@ -5273,12 +5246,12 @@
         <v>348</v>
       </c>
       <c r="E144" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="B145" t="s">
         <v>143</v>
@@ -5290,12 +5263,12 @@
         <v>348</v>
       </c>
       <c r="E145" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="B146" t="s">
         <v>144</v>
@@ -5307,12 +5280,12 @@
         <v>348</v>
       </c>
       <c r="E146" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="B147" t="s">
         <v>145</v>
@@ -5324,12 +5297,12 @@
         <v>350</v>
       </c>
       <c r="E147" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="B148" t="s">
         <v>146</v>
@@ -5346,7 +5319,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="B149" t="s">
         <v>147</v>
@@ -5358,12 +5331,12 @@
         <v>348</v>
       </c>
       <c r="E149" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="B150" t="s">
         <v>148</v>
@@ -5375,12 +5348,12 @@
         <v>348</v>
       </c>
       <c r="E150" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="B151" t="s">
         <v>149</v>
@@ -5392,12 +5365,12 @@
         <v>348</v>
       </c>
       <c r="E151" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="B152" t="s">
         <v>150</v>
@@ -5409,12 +5382,12 @@
         <v>350</v>
       </c>
       <c r="E152" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="B153" t="s">
         <v>151</v>
@@ -5423,15 +5396,15 @@
         <v>345</v>
       </c>
       <c r="D153" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E153" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="B154" t="s">
         <v>152</v>
@@ -5440,15 +5413,15 @@
         <v>345</v>
       </c>
       <c r="D154" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E154" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="B155" t="s">
         <v>153</v>
@@ -5460,12 +5433,12 @@
         <v>348</v>
       </c>
       <c r="E155" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="B156" t="s">
         <v>154</v>
@@ -5474,15 +5447,15 @@
         <v>345</v>
       </c>
       <c r="D156" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E156" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="B157" t="s">
         <v>155</v>
@@ -5499,7 +5472,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="B158" t="s">
         <v>156</v>
@@ -5508,15 +5481,15 @@
         <v>345</v>
       </c>
       <c r="D158" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E158" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="B159" t="s">
         <v>157</v>
@@ -5525,15 +5498,15 @@
         <v>345</v>
       </c>
       <c r="D159" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E159" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="B160" t="s">
         <v>158</v>
@@ -5545,12 +5518,12 @@
         <v>348</v>
       </c>
       <c r="E160" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="B161" t="s">
         <v>159</v>
@@ -5562,12 +5535,12 @@
         <v>348</v>
       </c>
       <c r="E161" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="B162" t="s">
         <v>160</v>
@@ -5579,12 +5552,12 @@
         <v>350</v>
       </c>
       <c r="E162" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="B163" t="s">
         <v>161</v>
@@ -5596,12 +5569,12 @@
         <v>348</v>
       </c>
       <c r="E163" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="B164" t="s">
         <v>162</v>
@@ -5618,7 +5591,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="B165" t="s">
         <v>163</v>
@@ -5630,12 +5603,12 @@
         <v>348</v>
       </c>
       <c r="E165" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="B166" t="s">
         <v>164</v>
@@ -5647,12 +5620,12 @@
         <v>350</v>
       </c>
       <c r="E166" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="B167" t="s">
         <v>165</v>
@@ -5661,15 +5634,15 @@
         <v>344</v>
       </c>
       <c r="D167" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E167" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="B168" t="s">
         <v>166</v>
@@ -5678,15 +5651,15 @@
         <v>344</v>
       </c>
       <c r="D168" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E168" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="B169" t="s">
         <v>167</v>
@@ -5695,15 +5668,15 @@
         <v>345</v>
       </c>
       <c r="D169" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E169" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="B170" t="s">
         <v>168</v>
@@ -5715,12 +5688,12 @@
         <v>348</v>
       </c>
       <c r="E170" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="B171" t="s">
         <v>169</v>
@@ -5732,12 +5705,12 @@
         <v>348</v>
       </c>
       <c r="E171" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="B172" t="s">
         <v>170</v>
@@ -5749,12 +5722,12 @@
         <v>348</v>
       </c>
       <c r="E172" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="B173" t="s">
         <v>171</v>
@@ -5763,15 +5736,15 @@
         <v>344</v>
       </c>
       <c r="D173" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E173" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="B174" t="s">
         <v>172</v>
@@ -5783,12 +5756,12 @@
         <v>348</v>
       </c>
       <c r="E174" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="B175" t="s">
         <v>173</v>
@@ -5800,12 +5773,12 @@
         <v>348</v>
       </c>
       <c r="E175" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="B176" t="s">
         <v>174</v>
@@ -5822,7 +5795,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="B177" t="s">
         <v>175</v>
@@ -5834,12 +5807,12 @@
         <v>348</v>
       </c>
       <c r="E177" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="B178" t="s">
         <v>176</v>
@@ -5851,12 +5824,12 @@
         <v>348</v>
       </c>
       <c r="E178" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="B179" t="s">
         <v>170</v>
@@ -5868,12 +5841,12 @@
         <v>348</v>
       </c>
       <c r="E179" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="B180" t="s">
         <v>177</v>
@@ -5885,12 +5858,12 @@
         <v>348</v>
       </c>
       <c r="E180" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="B181" t="s">
         <v>178</v>
@@ -5902,12 +5875,12 @@
         <v>348</v>
       </c>
       <c r="E181" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="B182" t="s">
         <v>179</v>
@@ -5919,12 +5892,12 @@
         <v>348</v>
       </c>
       <c r="E182" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="B183" t="s">
         <v>180</v>
@@ -5936,12 +5909,12 @@
         <v>348</v>
       </c>
       <c r="E183" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="B184" t="s">
         <v>181</v>
@@ -5953,12 +5926,12 @@
         <v>348</v>
       </c>
       <c r="E184" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="B185" t="s">
         <v>182</v>
@@ -5970,12 +5943,12 @@
         <v>348</v>
       </c>
       <c r="E185" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="B186" t="s">
         <v>9</v>
@@ -5987,12 +5960,12 @@
         <v>348</v>
       </c>
       <c r="E186" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="B187" t="s">
         <v>183</v>
@@ -6004,12 +5977,12 @@
         <v>348</v>
       </c>
       <c r="E187" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="B188" t="s">
         <v>184</v>
@@ -6021,12 +5994,12 @@
         <v>348</v>
       </c>
       <c r="E188" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="B189" t="s">
         <v>144</v>
@@ -6038,12 +6011,12 @@
         <v>348</v>
       </c>
       <c r="E189" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="B190" t="s">
         <v>185</v>
@@ -6055,12 +6028,12 @@
         <v>348</v>
       </c>
       <c r="E190" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="B191" t="s">
         <v>186</v>
@@ -6072,12 +6045,12 @@
         <v>348</v>
       </c>
       <c r="E191" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="B192" t="s">
         <v>187</v>
@@ -6089,12 +6062,12 @@
         <v>348</v>
       </c>
       <c r="E192" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="B193" t="s">
         <v>188</v>
@@ -6103,15 +6076,15 @@
         <v>344</v>
       </c>
       <c r="D193" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E193" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="B194" t="s">
         <v>189</v>
@@ -6123,12 +6096,12 @@
         <v>348</v>
       </c>
       <c r="E194" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="B195" t="s">
         <v>190</v>
@@ -6137,15 +6110,15 @@
         <v>345</v>
       </c>
       <c r="D195" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E195" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="B196" t="s">
         <v>191</v>
@@ -6157,12 +6130,12 @@
         <v>348</v>
       </c>
       <c r="E196" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="B197" t="s">
         <v>192</v>
@@ -6174,12 +6147,12 @@
         <v>348</v>
       </c>
       <c r="E197" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="B198" t="s">
         <v>193</v>
@@ -6191,12 +6164,12 @@
         <v>348</v>
       </c>
       <c r="E198" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="B199" t="s">
         <v>194</v>
@@ -6208,12 +6181,12 @@
         <v>348</v>
       </c>
       <c r="E199" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="B200" t="s">
         <v>195</v>
@@ -6225,12 +6198,12 @@
         <v>348</v>
       </c>
       <c r="E200" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="B201" t="s">
         <v>196</v>
@@ -6242,12 +6215,12 @@
         <v>348</v>
       </c>
       <c r="E201" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="B202" t="s">
         <v>197</v>
@@ -6259,12 +6232,12 @@
         <v>348</v>
       </c>
       <c r="E202" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="B203" t="s">
         <v>198</v>
@@ -6281,7 +6254,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="B204" t="s">
         <v>199</v>
@@ -6290,15 +6263,15 @@
         <v>344</v>
       </c>
       <c r="D204" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E204" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="B205" t="s">
         <v>200</v>
@@ -6307,15 +6280,15 @@
         <v>344</v>
       </c>
       <c r="D205" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E205" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="B206" t="s">
         <v>201</v>
@@ -6324,15 +6297,15 @@
         <v>345</v>
       </c>
       <c r="D206" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E206" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="B207" t="s">
         <v>202</v>
@@ -6344,12 +6317,12 @@
         <v>348</v>
       </c>
       <c r="E207" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="B208" t="s">
         <v>203</v>
@@ -6358,15 +6331,15 @@
         <v>345</v>
       </c>
       <c r="D208" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E208" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="B209" t="s">
         <v>204</v>
@@ -6378,12 +6351,12 @@
         <v>348</v>
       </c>
       <c r="E209" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="B210" t="s">
         <v>205</v>
@@ -6400,7 +6373,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="B211" t="s">
         <v>206</v>
@@ -6409,15 +6382,15 @@
         <v>344</v>
       </c>
       <c r="D211" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E211" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="B212" t="s">
         <v>207</v>
@@ -6429,12 +6402,12 @@
         <v>348</v>
       </c>
       <c r="E212" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="B213" t="s">
         <v>208</v>
@@ -6446,12 +6419,12 @@
         <v>348</v>
       </c>
       <c r="E213" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="B214" t="s">
         <v>209</v>
@@ -6463,12 +6436,12 @@
         <v>348</v>
       </c>
       <c r="E214" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="B215" t="s">
         <v>210</v>
@@ -6480,12 +6453,12 @@
         <v>348</v>
       </c>
       <c r="E215" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="B216" t="s">
         <v>211</v>
@@ -6497,12 +6470,12 @@
         <v>348</v>
       </c>
       <c r="E216" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="B217" t="s">
         <v>212</v>
@@ -6514,12 +6487,12 @@
         <v>348</v>
       </c>
       <c r="E217" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="B218" t="s">
         <v>213</v>
@@ -6536,7 +6509,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="B219" t="s">
         <v>214</v>
@@ -6553,7 +6526,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="B220" t="s">
         <v>215</v>
@@ -6565,12 +6538,12 @@
         <v>348</v>
       </c>
       <c r="E220" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="B221" t="s">
         <v>216</v>
@@ -6582,12 +6555,12 @@
         <v>348</v>
       </c>
       <c r="E221" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="B222" t="s">
         <v>217</v>
@@ -6599,12 +6572,12 @@
         <v>348</v>
       </c>
       <c r="E222" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="B223" t="s">
         <v>218</v>
@@ -6616,12 +6589,12 @@
         <v>348</v>
       </c>
       <c r="E223" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="B224" t="s">
         <v>219</v>
@@ -6633,12 +6606,12 @@
         <v>348</v>
       </c>
       <c r="E224" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="B225" t="s">
         <v>220</v>
@@ -6650,12 +6623,12 @@
         <v>348</v>
       </c>
       <c r="E225" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="B226" t="s">
         <v>221</v>
@@ -6667,12 +6640,12 @@
         <v>352</v>
       </c>
       <c r="E226" t="s">
-        <v>359</v>
+        <v>806</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="B227" t="s">
         <v>222</v>
@@ -6684,12 +6657,12 @@
         <v>348</v>
       </c>
       <c r="E227" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="B228" t="s">
         <v>223</v>
@@ -6698,15 +6671,15 @@
         <v>345</v>
       </c>
       <c r="D228" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E228" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="B229" t="s">
         <v>224</v>
@@ -6723,7 +6696,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="B230" t="s">
         <v>225</v>
@@ -6735,12 +6708,12 @@
         <v>348</v>
       </c>
       <c r="E230" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="B231" t="s">
         <v>226</v>
@@ -6757,7 +6730,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="B232" t="s">
         <v>227</v>
@@ -6774,7 +6747,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="B233" t="s">
         <v>228</v>
@@ -6791,7 +6764,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="B234" t="s">
         <v>229</v>
@@ -6808,7 +6781,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="B235" t="s">
         <v>230</v>
@@ -6820,12 +6793,12 @@
         <v>350</v>
       </c>
       <c r="E235" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="B236" t="s">
         <v>231</v>
@@ -6837,12 +6810,12 @@
         <v>348</v>
       </c>
       <c r="E236" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="B237" t="s">
         <v>232</v>
@@ -6854,12 +6827,12 @@
         <v>352</v>
       </c>
       <c r="E237" t="s">
-        <v>359</v>
+        <v>806</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="B238" t="s">
         <v>233</v>
@@ -6871,12 +6844,12 @@
         <v>348</v>
       </c>
       <c r="E238" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="B239" t="s">
         <v>234</v>
@@ -6888,12 +6861,12 @@
         <v>348</v>
       </c>
       <c r="E239" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="B240" t="s">
         <v>235</v>
@@ -6910,7 +6883,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="B241" t="s">
         <v>236</v>
@@ -6922,12 +6895,12 @@
         <v>348</v>
       </c>
       <c r="E241" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="B242" t="s">
         <v>237</v>
@@ -6939,12 +6912,12 @@
         <v>348</v>
       </c>
       <c r="E242" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="B243" t="s">
         <v>238</v>
@@ -6961,7 +6934,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="B244" t="s">
         <v>239</v>
@@ -6970,15 +6943,15 @@
         <v>344</v>
       </c>
       <c r="D244" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E244" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="B245" t="s">
         <v>240</v>
@@ -6990,12 +6963,12 @@
         <v>348</v>
       </c>
       <c r="E245" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="B246" t="s">
         <v>241</v>
@@ -7012,7 +6985,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="B247" t="s">
         <v>242</v>
@@ -7021,15 +6994,15 @@
         <v>344</v>
       </c>
       <c r="D247" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E247" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="B248" t="s">
         <v>243</v>
@@ -7038,15 +7011,15 @@
         <v>344</v>
       </c>
       <c r="D248" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E248" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="B249" t="s">
         <v>244</v>
@@ -7058,12 +7031,12 @@
         <v>348</v>
       </c>
       <c r="E249" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="B250" t="s">
         <v>245</v>
@@ -7075,12 +7048,12 @@
         <v>348</v>
       </c>
       <c r="E250" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="B251" t="s">
         <v>246</v>
@@ -7097,7 +7070,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="B252" t="s">
         <v>247</v>
@@ -7109,12 +7082,12 @@
         <v>348</v>
       </c>
       <c r="E252" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="B253" t="s">
         <v>248</v>
@@ -7126,12 +7099,12 @@
         <v>348</v>
       </c>
       <c r="E253" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="B254" t="s">
         <v>249</v>
@@ -7143,12 +7116,12 @@
         <v>348</v>
       </c>
       <c r="E254" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="B255" t="s">
         <v>250</v>
@@ -7160,12 +7133,12 @@
         <v>348</v>
       </c>
       <c r="E255" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="B256" t="s">
         <v>251</v>
@@ -7182,7 +7155,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="B257" t="s">
         <v>252</v>
@@ -7194,12 +7167,12 @@
         <v>348</v>
       </c>
       <c r="E257" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="B258" t="s">
         <v>253</v>
@@ -7211,12 +7184,12 @@
         <v>348</v>
       </c>
       <c r="E258" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="B259" t="s">
         <v>254</v>
@@ -7228,12 +7201,12 @@
         <v>348</v>
       </c>
       <c r="E259" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="B260" t="s">
         <v>255</v>
@@ -7245,12 +7218,12 @@
         <v>348</v>
       </c>
       <c r="E260" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="B261" t="s">
         <v>256</v>
@@ -7259,15 +7232,15 @@
         <v>345</v>
       </c>
       <c r="D261" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E261" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="B262" t="s">
         <v>257</v>
@@ -7276,15 +7249,15 @@
         <v>345</v>
       </c>
       <c r="D262" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E262" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="B263" t="s">
         <v>258</v>
@@ -7301,7 +7274,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="B264" t="s">
         <v>259</v>
@@ -7310,15 +7283,15 @@
         <v>344</v>
       </c>
       <c r="D264" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E264" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="B265" t="s">
         <v>260</v>
@@ -7335,7 +7308,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="B266" t="s">
         <v>261</v>
@@ -7347,12 +7320,12 @@
         <v>348</v>
       </c>
       <c r="E266" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="B267" t="s">
         <v>262</v>
@@ -7369,7 +7342,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="B268" t="s">
         <v>263</v>
@@ -7386,7 +7359,7 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="B269" t="s">
         <v>264</v>
@@ -7403,7 +7376,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="B270" t="s">
         <v>265</v>
@@ -7420,7 +7393,7 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="B271" t="s">
         <v>266</v>
@@ -7437,7 +7410,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="B272" t="s">
         <v>267</v>
@@ -7449,12 +7422,12 @@
         <v>348</v>
       </c>
       <c r="E272" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="B273" t="s">
         <v>268</v>
@@ -7471,7 +7444,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="B274" t="s">
         <v>269</v>
@@ -7483,12 +7456,12 @@
         <v>352</v>
       </c>
       <c r="E274" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="B275" t="s">
         <v>270</v>
@@ -7505,7 +7478,7 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="B276" t="s">
         <v>271</v>
@@ -7517,12 +7490,12 @@
         <v>348</v>
       </c>
       <c r="E276" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="B277" t="s">
         <v>272</v>
@@ -7534,12 +7507,12 @@
         <v>348</v>
       </c>
       <c r="E277" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="B278" t="s">
         <v>273</v>
@@ -7548,15 +7521,15 @@
         <v>345</v>
       </c>
       <c r="D278" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E278" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="B279" t="s">
         <v>274</v>
@@ -7565,15 +7538,15 @@
         <v>345</v>
       </c>
       <c r="D279" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E279" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="B280" t="s">
         <v>275</v>
@@ -7585,12 +7558,12 @@
         <v>348</v>
       </c>
       <c r="E280" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="B281" t="s">
         <v>276</v>
@@ -7602,12 +7575,12 @@
         <v>348</v>
       </c>
       <c r="E281" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="B282" t="s">
         <v>277</v>
@@ -7624,7 +7597,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="B283" t="s">
         <v>278</v>
@@ -7636,12 +7609,12 @@
         <v>348</v>
       </c>
       <c r="E283" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="B284" t="s">
         <v>279</v>
@@ -7650,15 +7623,15 @@
         <v>344</v>
       </c>
       <c r="D284" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E284" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="B285" t="s">
         <v>280</v>
@@ -7670,12 +7643,12 @@
         <v>348</v>
       </c>
       <c r="E285" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="B286" t="s">
         <v>281</v>
@@ -7687,12 +7660,12 @@
         <v>348</v>
       </c>
       <c r="E286" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="B287" t="s">
         <v>282</v>
@@ -7704,12 +7677,12 @@
         <v>348</v>
       </c>
       <c r="E287" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="B288" t="s">
         <v>283</v>
@@ -7726,7 +7699,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="B289" t="s">
         <v>284</v>
@@ -7738,12 +7711,12 @@
         <v>348</v>
       </c>
       <c r="E289" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="B290" t="s">
         <v>285</v>
@@ -7760,7 +7733,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="B291" t="s">
         <v>286</v>
@@ -7777,7 +7750,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="B292" t="s">
         <v>287</v>
@@ -7789,12 +7762,12 @@
         <v>348</v>
       </c>
       <c r="E292" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="B293" t="s">
         <v>288</v>
@@ -7806,12 +7779,12 @@
         <v>348</v>
       </c>
       <c r="E293" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="B294" t="s">
         <v>289</v>
@@ -7823,12 +7796,12 @@
         <v>348</v>
       </c>
       <c r="E294" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="B295" t="s">
         <v>290</v>
@@ -7845,7 +7818,7 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="B296" t="s">
         <v>291</v>
@@ -7862,7 +7835,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="B297" t="s">
         <v>292</v>
@@ -7879,7 +7852,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="B298" t="s">
         <v>293</v>
@@ -7891,12 +7864,12 @@
         <v>352</v>
       </c>
       <c r="E298" t="s">
-        <v>359</v>
+        <v>806</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="B299" t="s">
         <v>294</v>
@@ -7908,12 +7881,12 @@
         <v>348</v>
       </c>
       <c r="E299" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="B300" t="s">
         <v>295</v>
@@ -7930,7 +7903,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="B301" t="s">
         <v>296</v>
@@ -7947,7 +7920,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="B302" t="s">
         <v>297</v>
@@ -7959,12 +7932,12 @@
         <v>348</v>
       </c>
       <c r="E302" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="B303" t="s">
         <v>298</v>
@@ -7976,12 +7949,12 @@
         <v>348</v>
       </c>
       <c r="E303" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="B304" t="s">
         <v>299</v>
@@ -7993,12 +7966,12 @@
         <v>352</v>
       </c>
       <c r="E304" t="s">
-        <v>359</v>
+        <v>806</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="B305" t="s">
         <v>300</v>
@@ -8015,7 +7988,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="B306" t="s">
         <v>301</v>
@@ -8032,7 +8005,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="B307" t="s">
         <v>302</v>
@@ -8049,7 +8022,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="B308" t="s">
         <v>303</v>
@@ -8061,12 +8034,12 @@
         <v>348</v>
       </c>
       <c r="E308" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="B309" t="s">
         <v>304</v>
@@ -8078,12 +8051,12 @@
         <v>350</v>
       </c>
       <c r="E309" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="B310" t="s">
         <v>305</v>
@@ -8100,7 +8073,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="B311" t="s">
         <v>306</v>
@@ -8112,12 +8085,12 @@
         <v>352</v>
       </c>
       <c r="E311" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="B312" t="s">
         <v>307</v>
@@ -8129,12 +8102,12 @@
         <v>348</v>
       </c>
       <c r="E312" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="B313" t="s">
         <v>308</v>
@@ -8151,7 +8124,7 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="B314" t="s">
         <v>309</v>
@@ -8163,12 +8136,12 @@
         <v>348</v>
       </c>
       <c r="E314" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="B315" t="s">
         <v>310</v>
@@ -8180,12 +8153,12 @@
         <v>348</v>
       </c>
       <c r="E315" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="B316" t="s">
         <v>311</v>
@@ -8202,7 +8175,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="B317" t="s">
         <v>312</v>
@@ -8219,7 +8192,7 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="B318" t="s">
         <v>313</v>
@@ -8231,12 +8204,12 @@
         <v>348</v>
       </c>
       <c r="E318" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="B319" t="s">
         <v>314</v>
@@ -8253,7 +8226,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="B320" t="s">
         <v>315</v>
@@ -8265,12 +8238,12 @@
         <v>348</v>
       </c>
       <c r="E320" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="B321" t="s">
         <v>316</v>
@@ -8282,12 +8255,12 @@
         <v>348</v>
       </c>
       <c r="E321" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="B322" t="s">
         <v>317</v>
@@ -8299,12 +8272,12 @@
         <v>348</v>
       </c>
       <c r="E322" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="B323" t="s">
         <v>318</v>
@@ -8316,12 +8289,12 @@
         <v>352</v>
       </c>
       <c r="E323" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="B324" t="s">
         <v>319</v>
@@ -8333,12 +8306,12 @@
         <v>352</v>
       </c>
       <c r="E324" t="s">
-        <v>359</v>
+        <v>806</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="B325" t="s">
         <v>320</v>
@@ -8355,7 +8328,7 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="B326" t="s">
         <v>321</v>
@@ -8372,7 +8345,7 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="B327" t="s">
         <v>322</v>
@@ -8389,7 +8362,7 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="B328" t="s">
         <v>323</v>
@@ -8401,12 +8374,12 @@
         <v>348</v>
       </c>
       <c r="E328" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="B329" t="s">
         <v>324</v>
@@ -8423,7 +8396,7 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="B330" t="s">
         <v>325</v>
@@ -8435,12 +8408,12 @@
         <v>348</v>
       </c>
       <c r="E330" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="B331" t="s">
         <v>326</v>
@@ -8457,7 +8430,7 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="B332" t="s">
         <v>327</v>
@@ -8469,12 +8442,12 @@
         <v>348</v>
       </c>
       <c r="E332" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="B333" t="s">
         <v>328</v>
@@ -8491,7 +8464,7 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="B334" t="s">
         <v>329</v>
@@ -8503,12 +8476,12 @@
         <v>348</v>
       </c>
       <c r="E334" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="B335" t="s">
         <v>330</v>
@@ -8525,7 +8498,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="B336" t="s">
         <v>331</v>
@@ -8542,7 +8515,7 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="B337" t="s">
         <v>332</v>
@@ -8554,12 +8527,12 @@
         <v>352</v>
       </c>
       <c r="E337" t="s">
-        <v>359</v>
+        <v>806</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="B338" t="s">
         <v>333</v>
@@ -8571,12 +8544,12 @@
         <v>350</v>
       </c>
       <c r="E338" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="B339" t="s">
         <v>334</v>
@@ -8588,12 +8561,12 @@
         <v>350</v>
       </c>
       <c r="E339" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="B340" t="s">
         <v>335</v>
@@ -8605,12 +8578,12 @@
         <v>348</v>
       </c>
       <c r="E340" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="B341" t="s">
         <v>336</v>
@@ -8622,12 +8595,12 @@
         <v>352</v>
       </c>
       <c r="E341" t="s">
-        <v>359</v>
+        <v>806</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="B342" t="s">
         <v>337</v>
@@ -8639,12 +8612,12 @@
         <v>350</v>
       </c>
       <c r="E342" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="B343" t="s">
         <v>338</v>
@@ -8653,15 +8626,15 @@
         <v>344</v>
       </c>
       <c r="D343" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E343" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="B344" t="s">
         <v>339</v>
@@ -8673,12 +8646,12 @@
         <v>350</v>
       </c>
       <c r="E344" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="B345" t="s">
         <v>340</v>
@@ -8695,7 +8668,7 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="B346" t="s">
         <v>341</v>
@@ -8712,47 +8685,47 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="B347" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C347" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D347" t="s">
         <v>352</v>
       </c>
       <c r="E347" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="B348" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C348" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D348" t="s">
         <v>352</v>
       </c>
       <c r="E348" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="B349" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C349" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D349" t="s">
         <v>352</v>
@@ -8763,30 +8736,30 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="B350" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C350" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D350" t="s">
         <v>348</v>
       </c>
       <c r="E350" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="B351" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C351" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D351" t="s">
         <v>352</v>
@@ -8797,203 +8770,203 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="B352" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C352" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D352" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E352" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="B353" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C353" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D353" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E353" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="B354" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C354" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D354" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E354" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="B355" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C355" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D355" t="s">
         <v>350</v>
       </c>
       <c r="E355" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="B356" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C356" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D356" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E356" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="B357" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C357" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D357" t="s">
         <v>348</v>
       </c>
       <c r="E357" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="B358" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C358" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D358" t="s">
         <v>348</v>
       </c>
       <c r="E358" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="B359" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C359" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D359" t="s">
         <v>352</v>
       </c>
       <c r="E359" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="B360" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C360" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D360" t="s">
         <v>348</v>
       </c>
       <c r="E360" t="s">
-        <v>402</v>
+        <v>361</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="B361" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C361" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D361" t="s">
         <v>350</v>
       </c>
       <c r="E361" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="B362" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C362" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D362" t="s">
         <v>352</v>
       </c>
       <c r="E362" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="B363" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C363" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D363" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E363" t="s">
         <v>348</v>
@@ -9001,13 +8974,13 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="B364" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C364" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D364" t="s">
         <v>352</v>
@@ -9018,81 +8991,81 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="B365" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C365" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D365" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E365" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="B366" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C366" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D366" t="s">
         <v>350</v>
       </c>
       <c r="E366" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="B367" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C367" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D367" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="E367" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="B368" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C368" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D368" t="s">
         <v>350</v>
       </c>
       <c r="E368" t="s">
-        <v>415</v>
+        <v>370</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="B369" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C369" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D369" t="s">
         <v>348</v>
@@ -9103,98 +9076,98 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="B370" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C370" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D370" t="s">
         <v>348</v>
       </c>
       <c r="E370" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="B371" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C371" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D371" t="s">
         <v>348</v>
       </c>
       <c r="E371" t="s">
-        <v>419</v>
+        <v>356</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="B372" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="C372" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D372" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E372" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="B373" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="C373" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D373" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="E373" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="B374" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="C374" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D374" t="s">
         <v>352</v>
       </c>
       <c r="E374" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="B375" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="C375" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D375" t="s">
         <v>352</v>
@@ -9205,47 +9178,47 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="B376" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="C376" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D376" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="E376" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="B377" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="C377" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="D377" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E377" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="B378" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="C378" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D378" t="s">
         <v>348</v>
@@ -9256,13 +9229,13 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="B379" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="C379" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D379" t="s">
         <v>348</v>
@@ -9273,19 +9246,19 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="B380" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="C380" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D380" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E380" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
